--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3423.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3423.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.057563246813441</v>
+        <v>1.376096248626709</v>
       </c>
       <c r="B1">
-        <v>1.557704263321141</v>
+        <v>2.564220428466797</v>
       </c>
       <c r="C1">
-        <v>3.209757586648564</v>
+        <v>6.469056606292725</v>
       </c>
       <c r="D1">
-        <v>5.246159202390653</v>
+        <v>2.386465311050415</v>
       </c>
       <c r="E1">
-        <v>1.621129033313251</v>
+        <v>1.219548463821411</v>
       </c>
     </row>
   </sheetData>
